--- a/外部データ/仕様書/ハバヒロDRIVE仕様書.xlsx
+++ b/外部データ/仕様書/ハバヒロDRIVE仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="8100" activeTab="8"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8100" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -15,14 +15,13 @@
     <sheet name="ProgramFile" sheetId="1" r:id="rId6"/>
     <sheet name="画像File" sheetId="5" r:id="rId7"/>
     <sheet name="音声File" sheetId="6" r:id="rId8"/>
-    <sheet name="ガントチャート" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="137">
   <si>
     <t>プログラムファイル一覧</t>
     <rPh sb="9" eb="11">
@@ -361,600 +360,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WBS1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WBS2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>WBS3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>担当</t>
-    <rPh sb="0" eb="2">
-      <t>タントウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業数</t>
-    <rPh sb="0" eb="2">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバッグ作業</t>
-    <rPh sb="4" eb="6">
-      <t>サギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中村</t>
-    <rPh sb="0" eb="2">
-      <t>ナカムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大井川</t>
-    <rPh sb="0" eb="3">
-      <t>オオイガワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>坂本</t>
-    <rPh sb="0" eb="2">
-      <t>サカモト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>田邉</t>
-    <rPh sb="0" eb="2">
-      <t>タナベ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>松浦</t>
-    <rPh sb="0" eb="2">
-      <t>マツウラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>竹内</t>
-    <rPh sb="0" eb="2">
-      <t>タケウチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>萩原</t>
-    <rPh sb="0" eb="2">
-      <t>ハギワラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調整</t>
-    <rPh sb="0" eb="2">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>α版作成</t>
-    <rPh sb="1" eb="2">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Player処理</t>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/22(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/23(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/24(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/25(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/26(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/27(水)</t>
-    <rPh sb="5" eb="6">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28(木)</t>
-    <rPh sb="5" eb="6">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/23(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/24(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/25(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/26(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/27(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28(水)</t>
-    <rPh sb="5" eb="6">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/29(木)</t>
-    <rPh sb="5" eb="6">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/24(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/25(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/26(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/27(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/29(水)</t>
-    <rPh sb="5" eb="6">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/30(木)</t>
-    <rPh sb="5" eb="6">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/25(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/26(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/27(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/29(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/30(水)</t>
-    <rPh sb="5" eb="6">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/31(木)</t>
-    <rPh sb="5" eb="6">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/26(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/27(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/29(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/30(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/31(水)</t>
-    <rPh sb="5" eb="6">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/32(木)</t>
-    <rPh sb="5" eb="6">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/27(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/29(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/30(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/31(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/32(水)</t>
-    <rPh sb="5" eb="6">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/33(木)</t>
-    <rPh sb="5" eb="6">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/28(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/29(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/30(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/31(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/32(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/33(水)</t>
-    <rPh sb="5" eb="6">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/34(木)</t>
-    <rPh sb="5" eb="6">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/29(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/30(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/31(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/32(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/33(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/34(水)</t>
-    <rPh sb="5" eb="6">
-      <t>スイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/35(木)</t>
-    <rPh sb="5" eb="6">
-      <t>モク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/30(金)</t>
-    <rPh sb="5" eb="6">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/31(土)</t>
-    <rPh sb="5" eb="6">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/32(日)</t>
-    <rPh sb="5" eb="6">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/33(月)</t>
-    <rPh sb="5" eb="6">
-      <t>ゲツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5/34(火)</t>
-    <rPh sb="5" eb="6">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダメージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム処理</t>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゴール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>障害物</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>接触判定</t>
-    <rPh sb="0" eb="2">
-      <t>セッショク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕様書作成</t>
-    <rPh sb="0" eb="3">
-      <t>シヨウショ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -969,19 +379,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リザルトイメージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ポーズイメージ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>1280*720</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スクロール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -992,27 +394,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゴール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム終了判定</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>破壊</t>
-    <rPh sb="0" eb="2">
-      <t>ハカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>固定オブジェクト</t>
     <rPh sb="0" eb="2">
       <t>コテイ</t>
@@ -1033,16 +414,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スクロール値持たせる</t>
-    <rPh sb="5" eb="6">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ゴール時プレイヤーが移動しない</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
@@ -1067,6 +438,440 @@
     <rPh sb="4" eb="6">
       <t>テイド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛び降りる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴール演出</t>
+    <rPh sb="3" eb="5">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛び降りた後画面外</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スクロール関数を作る</t>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残耐久値に応じて差分あり(３～４枚)</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>タイキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128*128</t>
+  </si>
+  <si>
+    <t>128*128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128*128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128*129</t>
+  </si>
+  <si>
+    <t>128*130</t>
+  </si>
+  <si>
+    <t>8枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128*128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128*128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>877*620</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <rPh sb="0" eb="2">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アニメーション枚数</t>
+    <rPh sb="7" eb="9">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズ</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空</t>
+    <rPh sb="0" eb="1">
+      <t>ソラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正確にはアニメーションではない</t>
+    <rPh sb="0" eb="2">
+      <t>セイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1枚</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64*64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>並べて地形を作る</t>
+    <rPh sb="0" eb="1">
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1280*720</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面(草・土)</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地面(アスファルト)</t>
+    <rPh sb="0" eb="2">
+      <t>ジメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64*64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>64*64</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>町</t>
+    <rPh sb="0" eb="1">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8枚(不確定)</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フカクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム決定音</t>
+    <rPh sb="4" eb="6">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム否定音(戻るなど)</t>
+    <rPh sb="4" eb="6">
+      <t>ヒテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システムカーソル移動音</t>
+    <rPh sb="8" eb="10">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物カラスSE(羽ばたく)</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物カラスSE(鳴き声)</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ゴエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物ライオンSE(吠える)</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ毎に1曲</t>
+    <rPh sb="4" eb="5">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object/background</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object/goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>goal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object/character/player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>math_animation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object/character/player/character_player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object/character/player/character_vehicle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>character_player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player_config</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>character_vehicle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vehicle_config</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object/particle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>particle_manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>particle_object</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object/sky</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sky</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>object/stumbler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stum_manager</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stumbler</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1074,9 +879,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1094,7 +896,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1116,6 +918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1186,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,11 +1022,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1230,6 +1041,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2904,17 +2724,118 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1390649" y="1885951"/>
+          <a:ext cx="3324225" cy="1790699"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゴールの演出</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ゴールの判定はゴールの手前で行う。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤーはゴールの判定を受け取った時点でトロッコから飛び降りて、テレビの左隣にに着地、光アクションポーズをとりテレビに光を届ける。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>トロッコはそのまま画面外にフェードアウト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プレイヤーのアニメーション終了と共にゲーム終了してリザルトへ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609176</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>47982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2966,13 +2887,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>467783</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3024,13 +2945,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>87512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3082,13 +3003,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>13692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3460,7 +3381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -3474,18 +3395,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3519,8 +3440,12 @@
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -3530,8 +3455,12 @@
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3542,7 +3471,9 @@
         <v>31</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -3553,7 +3484,9 @@
         <v>32</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
@@ -3562,10 +3495,18 @@
       <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -3575,86 +3516,124 @@
         <v>38</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3664,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3679,44 +3658,47 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
-        <v>154</v>
+      <c r="B5" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="13" t="s">
-        <v>138</v>
+      <c r="B9" s="14" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>157</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3725,20 +3707,21 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3834,63 +3817,169 @@
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="5"/>
+      <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C33" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3899,23 +3988,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -3936,16 +4025,24 @@
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -3953,7 +4050,9 @@
         <v>33</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -3961,15 +4060,21 @@
         <v>34</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -3977,7 +4082,9 @@
         <v>37</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D8" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -4022,125 +4129,231 @@
       <c r="A15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>143</v>
-      </c>
+      <c r="A18" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>145</v>
-      </c>
-    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D47" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+      <c r="A48" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4151,2221 +4364,128 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4" s="8"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4" hidden="1" customWidth="1"/>
-    <col min="9" max="76" width="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="E1" s="1"/>
-      <c r="F1" s="1">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1">
-        <v>60</v>
-      </c>
-      <c r="H1" s="1">
-        <v>59</v>
-      </c>
-      <c r="I1" s="1">
-        <v>58</v>
-      </c>
-      <c r="J1" s="1">
-        <v>57</v>
-      </c>
-      <c r="K1" s="1">
-        <v>56</v>
-      </c>
-      <c r="L1" s="1">
-        <v>55</v>
-      </c>
-      <c r="M1" s="1">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1">
-        <v>53</v>
-      </c>
-      <c r="O1" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" s="1">
-        <v>51</v>
-      </c>
-      <c r="Q1" s="1">
-        <v>50</v>
-      </c>
-      <c r="R1" s="1">
-        <v>49</v>
-      </c>
-      <c r="S1" s="1">
-        <v>48</v>
-      </c>
-      <c r="T1" s="1">
-        <v>47</v>
-      </c>
-      <c r="U1" s="1">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1">
-        <v>45</v>
-      </c>
-      <c r="W1" s="1">
-        <v>44</v>
-      </c>
-      <c r="X1" s="1">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>41</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>40</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>39</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AO1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AQ1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AR1" s="1">
-        <v>23</v>
-      </c>
-      <c r="AS1" s="1">
-        <v>22</v>
-      </c>
-      <c r="AT1" s="1">
-        <v>21</v>
-      </c>
-      <c r="AU1" s="1">
-        <v>20</v>
-      </c>
-      <c r="AV1" s="1">
-        <v>19</v>
-      </c>
-      <c r="AW1" s="1">
-        <v>18</v>
-      </c>
-      <c r="AX1" s="1">
-        <v>17</v>
-      </c>
-      <c r="AY1" s="1">
-        <v>16</v>
-      </c>
-      <c r="AZ1" s="1">
-        <v>15</v>
-      </c>
-      <c r="BA1" s="1">
-        <v>14</v>
-      </c>
-      <c r="BB1" s="1">
-        <v>13</v>
-      </c>
-      <c r="BC1" s="1">
-        <v>12</v>
-      </c>
-      <c r="BD1" s="1">
-        <v>11</v>
-      </c>
-      <c r="BE1" s="1">
-        <v>10</v>
-      </c>
-      <c r="BF1" s="1">
-        <v>9</v>
-      </c>
-      <c r="BG1" s="1">
-        <v>8</v>
-      </c>
-      <c r="BH1" s="1">
-        <v>7</v>
-      </c>
-      <c r="BI1" s="1">
-        <v>6</v>
-      </c>
-      <c r="BJ1" s="1">
-        <v>5</v>
-      </c>
-      <c r="BK1" s="1">
-        <v>4</v>
-      </c>
-      <c r="BL1" s="1">
-        <v>3</v>
-      </c>
-      <c r="BM1" s="1">
-        <v>2</v>
-      </c>
-      <c r="BN1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:76" ht="96" x14ac:dyDescent="0.15">
-      <c r="E2" s="1"/>
-      <c r="F2" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AT2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AU2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AV2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AW2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="BA2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="BB2" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="BF2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="BH2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="BJ2" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="BK2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL2" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM2" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="BN2" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-    </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="1"/>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-      <c r="AY3" s="1"/>
-      <c r="AZ3" s="1"/>
-      <c r="BA3" s="1"/>
-      <c r="BB3" s="1"/>
-      <c r="BC3" s="1"/>
-      <c r="BD3" s="1"/>
-      <c r="BE3" s="1"/>
-      <c r="BF3" s="1"/>
-      <c r="BG3" s="1"/>
-      <c r="BH3" s="1"/>
-      <c r="BI3" s="1"/>
-      <c r="BJ3" s="1"/>
-      <c r="BK3" s="1"/>
-      <c r="BL3" s="1"/>
-      <c r="BM3" s="1"/>
-      <c r="BN3" s="1"/>
-    </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E20" si="0">SUM(F4:BN4)</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-      <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
-      <c r="AT4" s="1"/>
-      <c r="AU4" s="1"/>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-      <c r="AY4" s="1"/>
-      <c r="AZ4" s="1"/>
-      <c r="BA4" s="1"/>
-      <c r="BB4" s="1"/>
-      <c r="BC4" s="1"/>
-      <c r="BD4" s="1"/>
-      <c r="BE4" s="1"/>
-      <c r="BF4" s="1"/>
-      <c r="BG4" s="1"/>
-      <c r="BH4" s="1"/>
-      <c r="BI4" s="1"/>
-      <c r="BJ4" s="1"/>
-      <c r="BK4" s="1"/>
-      <c r="BL4" s="1"/>
-      <c r="BM4" s="1"/>
-      <c r="BN4" s="1"/>
-    </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-      <c r="AR5" s="1"/>
-      <c r="AS5" s="1"/>
-      <c r="AT5" s="1"/>
-      <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
-      <c r="AW5" s="1"/>
-      <c r="AX5" s="1"/>
-      <c r="AY5" s="1"/>
-      <c r="AZ5" s="1"/>
-      <c r="BA5" s="1"/>
-      <c r="BB5" s="1"/>
-      <c r="BC5" s="1"/>
-      <c r="BD5" s="1"/>
-      <c r="BE5" s="1"/>
-      <c r="BF5" s="1"/>
-      <c r="BG5" s="1"/>
-      <c r="BH5" s="1"/>
-      <c r="BI5" s="1"/>
-      <c r="BJ5" s="1"/>
-      <c r="BK5" s="1"/>
-      <c r="BL5" s="1"/>
-      <c r="BM5" s="1"/>
-      <c r="BN5" s="1"/>
-    </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1"/>
-      <c r="AV6" s="1"/>
-      <c r="AW6" s="1"/>
-      <c r="AX6" s="1"/>
-      <c r="AY6" s="1"/>
-      <c r="AZ6" s="1"/>
-      <c r="BA6" s="1"/>
-      <c r="BB6" s="1"/>
-      <c r="BC6" s="1"/>
-      <c r="BD6" s="1"/>
-      <c r="BE6" s="1"/>
-      <c r="BF6" s="1"/>
-      <c r="BG6" s="1"/>
-      <c r="BH6" s="1"/>
-      <c r="BI6" s="1"/>
-      <c r="BJ6" s="1"/>
-      <c r="BK6" s="1"/>
-      <c r="BL6" s="1"/>
-      <c r="BM6" s="1"/>
-      <c r="BN6" s="1"/>
-    </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
-      <c r="AT7" s="1"/>
-      <c r="AU7" s="1"/>
-      <c r="AV7" s="1"/>
-      <c r="AW7" s="1"/>
-      <c r="AX7" s="1"/>
-      <c r="AY7" s="1"/>
-      <c r="AZ7" s="1"/>
-      <c r="BA7" s="1"/>
-      <c r="BB7" s="1"/>
-      <c r="BC7" s="1"/>
-      <c r="BD7" s="1"/>
-      <c r="BE7" s="1"/>
-      <c r="BF7" s="1"/>
-      <c r="BG7" s="1"/>
-      <c r="BH7" s="1"/>
-      <c r="BI7" s="1"/>
-      <c r="BJ7" s="1"/>
-      <c r="BK7" s="1"/>
-      <c r="BL7" s="1"/>
-      <c r="BM7" s="1"/>
-      <c r="BN7" s="1"/>
-    </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
-    </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-    </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
-    </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-    </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1">
-        <f t="shared" ref="E12" si="1">SUM(F12:BN12)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-    </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13" si="2">SUM(F13:BN13)</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1">
-        <v>1</v>
-      </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-    </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <f t="shared" ref="E14" si="3">SUM(F14:BN14)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-    </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1">
-        <f t="shared" ref="E15" si="4">SUM(F15:BN15)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
-    </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.15">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1">
-        <f t="shared" ref="E16" si="5">SUM(F16:BN16)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1">
-        <f t="shared" ref="E17:E19" si="6">SUM(F17:BN17)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-    </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
-    </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="1"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="1"/>
-      <c r="AR20" s="1"/>
-      <c r="AS20" s="1"/>
-      <c r="AT20" s="1"/>
-      <c r="AU20" s="1"/>
-      <c r="AV20" s="1"/>
-      <c r="AW20" s="1"/>
-      <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
-      <c r="AZ20" s="1"/>
-      <c r="BA20" s="1"/>
-      <c r="BB20" s="1"/>
-      <c r="BC20" s="1"/>
-      <c r="BD20" s="1"/>
-      <c r="BE20" s="1"/>
-      <c r="BF20" s="1"/>
-      <c r="BG20" s="1"/>
-      <c r="BH20" s="1"/>
-      <c r="BI20" s="1"/>
-      <c r="BJ20" s="1"/>
-      <c r="BK20" s="1"/>
-      <c r="BL20" s="1"/>
-      <c r="BM20" s="1"/>
-      <c r="BN20" s="1"/>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" ref="E21:E23" si="7">SUM(F21:BN21)</f>
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="1"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="1"/>
-      <c r="AR21" s="1"/>
-      <c r="AS21" s="1"/>
-      <c r="AT21" s="1"/>
-      <c r="AU21" s="1"/>
-      <c r="AV21" s="1"/>
-      <c r="AW21" s="1"/>
-      <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
-      <c r="AZ21" s="1"/>
-      <c r="BA21" s="1"/>
-      <c r="BB21" s="1"/>
-      <c r="BC21" s="1"/>
-      <c r="BD21" s="1"/>
-      <c r="BE21" s="1"/>
-      <c r="BF21" s="1"/>
-      <c r="BG21" s="1"/>
-      <c r="BH21" s="1"/>
-      <c r="BI21" s="1"/>
-      <c r="BJ21" s="1"/>
-      <c r="BK21" s="1"/>
-      <c r="BL21" s="1"/>
-      <c r="BM21" s="1"/>
-      <c r="BN21" s="1"/>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="1"/>
-      <c r="AR22" s="1"/>
-      <c r="AS22" s="1"/>
-      <c r="AT22" s="1"/>
-      <c r="AU22" s="1"/>
-      <c r="AV22" s="1"/>
-      <c r="AW22" s="1"/>
-      <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
-      <c r="AZ22" s="1"/>
-      <c r="BA22" s="1"/>
-      <c r="BB22" s="1"/>
-      <c r="BC22" s="1"/>
-      <c r="BD22" s="1"/>
-      <c r="BE22" s="1"/>
-      <c r="BF22" s="1"/>
-      <c r="BG22" s="1"/>
-      <c r="BH22" s="1"/>
-      <c r="BI22" s="1"/>
-      <c r="BJ22" s="1"/>
-      <c r="BK22" s="1"/>
-      <c r="BL22" s="1"/>
-      <c r="BM22" s="1"/>
-      <c r="BN22" s="1"/>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="7"/>
-        <v>0.3</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1"/>
-      <c r="AO23" s="1"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="1"/>
-      <c r="AR23" s="1"/>
-      <c r="AS23" s="1"/>
-      <c r="AT23" s="1"/>
-      <c r="AU23" s="1"/>
-      <c r="AV23" s="1"/>
-      <c r="AW23" s="1"/>
-      <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
-      <c r="AZ23" s="1"/>
-      <c r="BA23" s="1"/>
-      <c r="BB23" s="1"/>
-      <c r="BC23" s="1"/>
-      <c r="BD23" s="1"/>
-      <c r="BE23" s="1"/>
-      <c r="BF23" s="1"/>
-      <c r="BG23" s="1"/>
-      <c r="BH23" s="1"/>
-      <c r="BI23" s="1"/>
-      <c r="BJ23" s="1"/>
-      <c r="BK23" s="1"/>
-      <c r="BL23" s="1"/>
-      <c r="BM23" s="1"/>
-      <c r="BN23" s="1"/>
-    </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="1">
-        <f>SUM(F24:BN24)</f>
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="1"/>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-      <c r="AO24" s="1"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="1"/>
-      <c r="AR24" s="1"/>
-      <c r="AS24" s="1"/>
-      <c r="AT24" s="1"/>
-      <c r="AU24" s="1"/>
-      <c r="AV24" s="1"/>
-      <c r="AW24" s="1"/>
-      <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
-      <c r="AZ24" s="1"/>
-      <c r="BA24" s="1"/>
-      <c r="BB24" s="1"/>
-      <c r="BC24" s="1"/>
-      <c r="BD24" s="1"/>
-      <c r="BE24" s="1"/>
-      <c r="BF24" s="1"/>
-      <c r="BG24" s="1"/>
-      <c r="BH24" s="1"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="1"/>
-      <c r="BK24" s="1"/>
-      <c r="BL24" s="1"/>
-      <c r="BM24" s="1"/>
-      <c r="BN24" s="1"/>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A25" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1">
-        <f t="shared" ref="E25" si="8">SUM(F25:BN25)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="1"/>
-      <c r="AR25" s="1"/>
-      <c r="AS25" s="1"/>
-      <c r="AT25" s="1"/>
-      <c r="AU25" s="1"/>
-      <c r="AV25" s="1"/>
-      <c r="AW25" s="1"/>
-      <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
-      <c r="AZ25" s="1"/>
-      <c r="BA25" s="1"/>
-      <c r="BB25" s="1"/>
-      <c r="BC25" s="1"/>
-      <c r="BD25" s="1"/>
-      <c r="BE25" s="1"/>
-      <c r="BF25" s="1"/>
-      <c r="BG25" s="1"/>
-      <c r="BH25" s="1"/>
-      <c r="BI25" s="1"/>
-      <c r="BJ25" s="1"/>
-      <c r="BK25" s="1"/>
-      <c r="BL25" s="1"/>
-      <c r="BM25" s="1"/>
-      <c r="BN25" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E25:BN25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4:BN24">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/外部データ/仕様書/ハバヒロDRIVE仕様書.xlsx
+++ b/外部データ/仕様書/ハバヒロDRIVE仕様書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8100" activeTab="3"/>
+    <workbookView xWindow="10230" yWindow="-15" windowWidth="10275" windowHeight="8100" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="156">
   <si>
     <t>プログラムファイル一覧</t>
     <rPh sb="9" eb="11">
@@ -872,6 +872,136 @@
   </si>
   <si>
     <t>stumbler</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1280*720</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャプター選択背景</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷柱</t>
+    <rPh sb="0" eb="2">
+      <t>ツララ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴミ箱</t>
+    <rPh sb="2" eb="3">
+      <t>バコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サボテン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>看板</t>
+    <rPh sb="0" eb="2">
+      <t>カンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリケード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の実</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>虫(群れ？)</t>
+    <rPh sb="0" eb="1">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128*128</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>128*256</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定は葉っぱ(128*128)のみ</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3枚*ステージ数</t>
+    <rPh sb="1" eb="2">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -994,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1031,6 +1161,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1043,13 +1179,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2829,13 +2962,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609176</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>47982</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2887,13 +3020,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>467783</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>628651</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2945,13 +3078,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428626</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>87512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3003,13 +3136,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>13692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3035,6 +3168,64 @@
         <a:xfrm>
           <a:off x="5086350" y="8334375"/>
           <a:ext cx="2276475" cy="1280517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666754</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142878</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>27720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667504" y="8310566"/>
+          <a:ext cx="2238374" cy="1218342"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3397,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -3670,7 +3861,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3678,13 +3869,13 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3692,7 +3883,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B10" s="15"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="2" t="s">
         <v>67</v>
       </c>
@@ -3823,7 +4014,7 @@
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B15" s="1"/>
@@ -3839,7 +4030,7 @@
       <c r="C16" s="1"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>126</v>
       </c>
@@ -3855,7 +4046,7 @@
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>128</v>
       </c>
@@ -3887,7 +4078,7 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3905,14 +4096,14 @@
       <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3930,7 +4121,7 @@
       <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="2" t="s">
         <v>136</v>
       </c>
@@ -3988,10 +4179,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4246,13 +4437,13 @@
       <c r="D24" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>59</v>
+      <c r="A26" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>27</v>
@@ -4265,95 +4456,236 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>87</v>
+      <c r="A28" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B49" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C49" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D49" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C60" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="7" t="s">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B70" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C70" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D70" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
